--- a/Project 4 Apache Common Configuration/Correlation/Correlation12&4.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation/Correlation12&4.xlsx
@@ -885,7 +885,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -914,6 +914,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1006,7 +1021,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB3B3B3"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
@@ -1014,7 +1029,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FF0084D1"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
@@ -1053,6 +1068,3993 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Metric 1 &amp; 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116507281705107"/>
+          <c:y val="0.166574063784865"/>
+          <c:w val="0.828801800112507"/>
+          <c:h val="0.635181686854095"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mccabe Complexity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0084d1"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="284"/>
+                <c:pt idx="0">
+                  <c:v>0.893617021276596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.850574712643678</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.816793893129771</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.898550724637681</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.599033816425121</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.896551724137931</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.96078431372549</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.986547085201794</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.898148148148148</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.968253968253968</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.972067039106145</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.845360824742268</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.985714285714286</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.188888888888889</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.969187675070028</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.945945945945946</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.977099236641221</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.636363636363636</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.41025641025641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.91304347826087</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.837837837837838</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.926829268292683</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.978260869565217</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.992805755395684</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.745454545454545</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.971428571428571</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.957575757575757</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.966666666666667</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.954545454545455</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.862745098039216</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.890295358649789</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.964285714285714</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.970588235294118</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.934426229508197</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.945945945945946</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.956521739130435</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.96969696969697</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.956521739130435</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.984674329501916</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.985507246376812</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.990654205607477</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.968253968253968</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.981981981981982</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.992647058823529</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.982905982905983</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.756756756756757</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.211678832116788</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.956228956228956</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.781954887218045</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.583333333333333</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.484848484848485</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.984848484848485</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.626829268292683</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.811320754716981</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.360824742268041</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.67515923566879</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.736842105263158</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.870967741935484</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.951219512195122</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.991735537190083</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.987179487179487</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.943181818181818</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.947368421052632</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.972222222222222</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.782608695652174</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.941176470588235</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="284"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="30147068"/>
+        <c:axId val="58518997"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="30147068"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="58518997"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="58518997"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 4</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="30147068"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Metric 2 &amp; 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.116440497780001"/>
+          <c:y val="0.166611092586418"/>
+          <c:w val="0.828778688012007"/>
+          <c:h val="0.635100589085251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mccabe Complexity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="0084d1"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0084d1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="284"/>
+                <c:pt idx="0">
+                  <c:v>0.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.782608695652174</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.519230769230769</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.962121212121212</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.970588235294118</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.954545454545455</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.952380952380952</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.588235294117647</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.980769230769231</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.8671875</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.957142857142857</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.86046511627907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.888888888888889</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.96875</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.990384615384615</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.894736842105263</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.954545454545455</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.840909090909091</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.954545454545455</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.868421052631579</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.982758620689655</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.865853658536585</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.975</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.932432432432432</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.789473684210526</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.180555555555556</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.777777777777778</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.948717948717949</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.78125</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.904761904761905</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.486577181208054</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.544554455445545</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.943181818181818</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.931818181818182</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.977272727272727</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.928571428571429</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.946428571428571</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.942622950819672</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.964285714285714</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.916666666666667</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$285</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="284"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="88307133"/>
+        <c:axId val="95291961"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="88307133"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="95291961"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="95291961"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 4</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="88307133"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>326160</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>216720</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>72720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="0" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="21079800" y="1038240"/>
+        <a:ext cx="5756400" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>360000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>250560</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>8280</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name=""/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="21113640" y="4550040"/>
+        <a:ext cx="5756400" cy="3238560"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1060,11 +5062,11 @@
   </sheetPr>
   <dimension ref="A1:O1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N9" activeCellId="0" sqref="N9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="68.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
@@ -1078,7 +5080,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="15.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="19.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="28.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="31.27"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14420,5 +18422,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>